--- a/stock_historical_data/1wk/SPELS.BO.xlsx
+++ b/stock_historical_data/1wk/SPELS.BO.xlsx
@@ -64544,7 +64544,9 @@
       <c r="P1209" t="n">
         <v>0</v>
       </c>
-      <c r="Q1209" t="inlineStr"/>
+      <c r="Q1209" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SPELS.BO.xlsx
+++ b/stock_historical_data/1wk/SPELS.BO.xlsx
@@ -68229,7 +68229,9 @@
       <c r="Q1210" t="n">
         <v>0</v>
       </c>
-      <c r="R1210" t="inlineStr"/>
+      <c r="R1210" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SPELS.BO.xlsx
+++ b/stock_historical_data/1wk/SPELS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1210"/>
+  <dimension ref="A1:R1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68233,6 +68233,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>143.3000030517578</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>168.3999938964844</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>134.75</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>168.3999938964844</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>168.3999938964844</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>566536</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1211" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1211" t="inlineStr"/>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>176.8000030517578</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>214.75</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>170</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>214.75</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>214.75</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>1498866</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1212" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1212" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/SPELS.BO.xlsx
+++ b/stock_historical_data/1wk/SPELS.BO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1212"/>
+  <dimension ref="A1:R1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -68165,7 +68165,7 @@
         <v>23</v>
       </c>
       <c r="O1209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1209" t="n">
         <v>0</v>
@@ -68285,7 +68285,9 @@
       <c r="Q1211" t="n">
         <v>0</v>
       </c>
-      <c r="R1211" t="inlineStr"/>
+      <c r="R1211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1212">
       <c r="A1212" s="2" t="n">
@@ -68331,7 +68333,7 @@
         <v>26</v>
       </c>
       <c r="O1212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1212" t="n">
         <v>0</v>
@@ -68339,7 +68341,477 @@
       <c r="Q1212" t="n">
         <v>0</v>
       </c>
-      <c r="R1212" t="inlineStr"/>
+      <c r="R1212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>176.5500030517578</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>193</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>168</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>180.8500061035156</v>
+      </c>
+      <c r="F1213" t="inlineStr"/>
+      <c r="G1213" t="n">
+        <v>232087</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1213" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1213" t="inlineStr"/>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>179.8000030517578</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>158.25</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>159.1499938964844</v>
+      </c>
+      <c r="F1214" t="inlineStr"/>
+      <c r="G1214" t="n">
+        <v>260242</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1214" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1214" t="inlineStr"/>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>160</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>174.6000061035156</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>151</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>169.1499938964844</v>
+      </c>
+      <c r="F1215" t="inlineStr"/>
+      <c r="G1215" t="n">
+        <v>265681</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1215" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1215" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1215" t="inlineStr"/>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>172.8999938964844</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>177</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>155.3500061035156</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>157.6000061035156</v>
+      </c>
+      <c r="F1216" t="inlineStr"/>
+      <c r="G1216" t="n">
+        <v>205064</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1216" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1216" t="inlineStr"/>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="C1217" t="n">
+        <v>167.8999938964844</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>142.3000030517578</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>155.8000030517578</v>
+      </c>
+      <c r="F1217" t="inlineStr"/>
+      <c r="G1217" t="n">
+        <v>430341</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1217" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1217" t="inlineStr"/>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>150</v>
+      </c>
+      <c r="C1218" t="n">
+        <v>160.8999938964844</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>147</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>147.5500030517578</v>
+      </c>
+      <c r="F1218" t="inlineStr"/>
+      <c r="G1218" t="n">
+        <v>175790</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1218" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1218" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1218" t="inlineStr"/>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>147.5500030517578</v>
+      </c>
+      <c r="C1219" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>119.5500030517578</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>119.9499969482422</v>
+      </c>
+      <c r="F1219" t="inlineStr"/>
+      <c r="G1219" t="n">
+        <v>327181</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1219" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1219" t="inlineStr"/>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>119.25</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>137.6999969482422</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>108.3499984741211</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>132.4499969482422</v>
+      </c>
+      <c r="F1220" t="inlineStr"/>
+      <c r="G1220" t="n">
+        <v>292358</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1220" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1220" t="inlineStr"/>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>143.8999938964844</v>
+      </c>
+      <c r="C1221" t="n">
+        <v>143.8999938964844</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>109</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>113</v>
+      </c>
+      <c r="F1221" t="inlineStr"/>
+      <c r="G1221" t="n">
+        <v>310960</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1221" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SPELS.BO.xlsx
+++ b/stock_historical_data/1wk/SPELS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1221"/>
+  <dimension ref="A1:R1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -68395,7 +68395,9 @@
       <c r="Q1213" t="n">
         <v>0</v>
       </c>
-      <c r="R1213" t="inlineStr"/>
+      <c r="R1213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1214">
       <c r="A1214" s="2" t="n">
@@ -68447,7 +68449,9 @@
       <c r="Q1214" t="n">
         <v>0</v>
       </c>
-      <c r="R1214" t="inlineStr"/>
+      <c r="R1214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1215">
       <c r="A1215" s="2" t="n">
@@ -68499,7 +68503,9 @@
       <c r="Q1215" t="n">
         <v>1</v>
       </c>
-      <c r="R1215" t="inlineStr"/>
+      <c r="R1215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1216">
       <c r="A1216" s="2" t="n">
@@ -68551,7 +68557,9 @@
       <c r="Q1216" t="n">
         <v>0</v>
       </c>
-      <c r="R1216" t="inlineStr"/>
+      <c r="R1216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1217">
       <c r="A1217" s="2" t="n">
@@ -68603,7 +68611,9 @@
       <c r="Q1217" t="n">
         <v>0</v>
       </c>
-      <c r="R1217" t="inlineStr"/>
+      <c r="R1217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1218">
       <c r="A1218" s="2" t="n">
@@ -68655,7 +68665,9 @@
       <c r="Q1218" t="n">
         <v>2</v>
       </c>
-      <c r="R1218" t="inlineStr"/>
+      <c r="R1218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1219">
       <c r="A1219" s="2" t="n">
@@ -68707,7 +68719,9 @@
       <c r="Q1219" t="n">
         <v>0</v>
       </c>
-      <c r="R1219" t="inlineStr"/>
+      <c r="R1219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1220">
       <c r="A1220" s="2" t="n">
@@ -68759,7 +68773,9 @@
       <c r="Q1220" t="n">
         <v>0</v>
       </c>
-      <c r="R1220" t="inlineStr"/>
+      <c r="R1220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1221">
       <c r="A1221" s="2" t="n">
@@ -68811,7 +68827,477 @@
       <c r="Q1221" t="n">
         <v>0</v>
       </c>
-      <c r="R1221" t="inlineStr"/>
+      <c r="R1221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="C1222" t="n">
+        <v>146.8500061035156</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>104</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>140.6499938964844</v>
+      </c>
+      <c r="F1222" t="inlineStr"/>
+      <c r="G1222" t="n">
+        <v>493572</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1222" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1222" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1222" t="inlineStr"/>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>149</v>
+      </c>
+      <c r="C1223" t="n">
+        <v>149.9499969482422</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>133.6999969482422</v>
+      </c>
+      <c r="F1223" t="inlineStr"/>
+      <c r="G1223" t="n">
+        <v>251615</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1223" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1223" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1223" t="inlineStr"/>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>137.0500030517578</v>
+      </c>
+      <c r="C1224" t="n">
+        <v>139</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>121.25</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>134.3500061035156</v>
+      </c>
+      <c r="F1224" t="inlineStr"/>
+      <c r="G1224" t="n">
+        <v>290700</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1224" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1224" t="inlineStr"/>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>135.9499969482422</v>
+      </c>
+      <c r="C1225" t="n">
+        <v>140.8000030517578</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>120.1500015258789</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>122.6999969482422</v>
+      </c>
+      <c r="F1225" t="inlineStr"/>
+      <c r="G1225" t="n">
+        <v>324121</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1225" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1225" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1225" t="inlineStr"/>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>122.6999969482422</v>
+      </c>
+      <c r="C1226" t="n">
+        <v>141.8000030517578</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>122</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>129.3999938964844</v>
+      </c>
+      <c r="F1226" t="inlineStr"/>
+      <c r="G1226" t="n">
+        <v>218164</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1226" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1226" t="inlineStr"/>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1227" t="n">
+        <v>120</v>
+      </c>
+      <c r="C1227" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>109.9499969482422</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>127.0500030517578</v>
+      </c>
+      <c r="F1227" t="inlineStr"/>
+      <c r="G1227" t="n">
+        <v>224667</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1227" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1227" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1227" t="inlineStr"/>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1228" t="n">
+        <v>136</v>
+      </c>
+      <c r="C1228" t="n">
+        <v>136.6999969482422</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>125.6500015258789</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>132.3000030517578</v>
+      </c>
+      <c r="F1228" t="inlineStr"/>
+      <c r="G1228" t="n">
+        <v>226091</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1228" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1228" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1228" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1228" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1228" t="inlineStr"/>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1229" t="n">
+        <v>135</v>
+      </c>
+      <c r="C1229" t="n">
+        <v>142</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>125</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>129.1000061035156</v>
+      </c>
+      <c r="F1229" t="inlineStr"/>
+      <c r="G1229" t="n">
+        <v>451224</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1229" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1229" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1229" t="inlineStr"/>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>127</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>131.8000030517578</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>113</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>115.5999984741211</v>
+      </c>
+      <c r="F1230" t="inlineStr"/>
+      <c r="G1230" t="n">
+        <v>389598</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1230" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1230" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
